--- a/biology/Microbiologie/Anoxybacillus/Anoxybacillus.xlsx
+++ b/biology/Microbiologie/Anoxybacillus/Anoxybacillus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Anoxybacillus est un genre de bactéries à Gram positif de la famille des Bacillaceae. Ces bactéries font partie de l'ordre Caryophanales présentes dans l'embranchement des Bacillota.
 </t>
@@ -511,9 +523,11 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'isolement de la souche K1 et sa caractérisation a permis de la différencier des autres espèces de Bacillus et distinguer un groupe de bactéries classées dans ce genre en tant que nouveau genre bactérien[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'isolement de la souche K1 et sa caractérisation a permis de la différencier des autres espèces de Bacillus et distinguer un groupe de bactéries classées dans ce genre en tant que nouveau genre bactérien.
 </t>
         </is>
       </c>
@@ -544,8 +558,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Étymologie
-L'étymologie de ce genre Anoxybacillus est la suivante : A.no.xy.ba.cil.lus Gr. pref. an-, sans; Gr. masc. adj. oxys, acide en mot combiné indiquant oxygène; L. masc. n. bacillus, petit batonnet; N.L. masc. n. Anoxybacillus, ce qui signifie, un bacille vivant sans oxygène[1],[2].
+          <t>Étymologie</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'étymologie de ce genre Anoxybacillus est la suivante : A.no.xy.ba.cil.lus Gr. pref. an-, sans; Gr. masc. adj. oxys, acide en mot combiné indiquant oxygène; L. masc. n. bacillus, petit batonnet; N.L. masc. n. Anoxybacillus, ce qui signifie, un bacille vivant sans oxygène,.
 </t>
         </is>
       </c>
@@ -574,11 +593,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon la LPSN  (17 juillet 2023)[3], le genre Anoxybacillus comprend 24 espèces publiées de manière valide et au nom correct[2].
-Phylogénie
-Le séquençage de 1340 bases de la séquence nucléotidique de l'ARNr 16S de la souche K1 a permis de la positionner très proche des Bacillus flavothermus[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon la LPSN  (17 juillet 2023), le genre Anoxybacillus comprend 24 espèces publiées de manière valide et au nom correct.
 </t>
         </is>
       </c>
@@ -604,12 +623,51 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Liste des espèces</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Phylogénie</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le séquençage de 1340 bases de la séquence nucléotidique de l'ARNr 16S de la souche K1 a permis de la positionner très proche des Bacillus flavothermus.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Anoxybacillus</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Microbiologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Anoxybacillus</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Description</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Lors de sa description, les bactéries du genre Anoxybacillus sont des bactéries à Gram négatif strictement anaérobies, alcalophiles et modérément thermophiles. Elles sont capables de fermenter et de former des spores[1].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Lors de sa description, les bactéries du genre Anoxybacillus sont des bactéries à Gram négatif strictement anaérobies, alcalophiles et modérément thermophiles. Elles sont capables de fermenter et de former des spores.
 </t>
         </is>
       </c>
